--- a/biology/Microbiologie/Aquaspirillum_arcticum/Aquaspirillum_arcticum.xlsx
+++ b/biology/Microbiologie/Aquaspirillum_arcticum/Aquaspirillum_arcticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquaspirillum arcticum est une espèce du genre Aquaspirillum et sont des bactéries à gram négatif de forme hélicoïdale. L'appartenance de cette espèce à la famille des Chromobacteriaceae et donc du genre Aquaspirillum reste discutée.
 </t>
@@ -511,12 +523,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aquaspirillum arcticum a été décrite en 1990 avec l'isolement dans des sédiments arctiques de la souche type de cette nouvelle espèce. Sa caractérisation biochimique et morphologique a permis de la classer dans le genre Aquaspirillum[1],[2].
-Des études phylogéniques basées sur la séquence de l'ARNr 16S mettent un doute sur son assignation au genre Aquaspirillum et à la famille Chromobacteriaceae car selon ces analyses, A. arcticum pourrait devoir être reclassée dans la famille des Oxalobacteraceae[3].
-Étymologie
-L'étymologie du nom de genre Aquaspirillum est basée sur le mot aqua et se résume ainsi : A.qua.spi.ril.lum. L. fem. n. aqua, eau; Gr. fem. n. speîra, une spiralle; N.L. neut. dim. n. spirillum, une petite spiralle; N.L. neut. dim. n. Aquaspirillum, Une petite spiralle aquatique[4]. L'étymologie de l'épithète caractéristique de cette espèce est arc’ti.cum. L. neut. adj. arcticum, de l'Arctique où l'espèce a été isolée en premier[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aquaspirillum arcticum a été décrite en 1990 avec l'isolement dans des sédiments arctiques de la souche type de cette nouvelle espèce. Sa caractérisation biochimique et morphologique a permis de la classer dans le genre Aquaspirillum,.
+Des études phylogéniques basées sur la séquence de l'ARNr 16S mettent un doute sur son assignation au genre Aquaspirillum et à la famille Chromobacteriaceae car selon ces analyses, A. arcticum pourrait devoir être reclassée dans la famille des Oxalobacteraceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aquaspirillum_arcticum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquaspirillum_arcticum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Aquaspirillum est basée sur le mot aqua et se résume ainsi : A.qua.spi.ril.lum. L. fem. n. aqua, eau; Gr. fem. n. speîra, une spiralle; N.L. neut. dim. n. spirillum, une petite spiralle; N.L. neut. dim. n. Aquaspirillum, Une petite spiralle aquatique. L'étymologie de l'épithète caractéristique de cette espèce est arc’ti.cum. L. neut. adj. arcticum, de l'Arctique où l'espèce a été isolée en premier.
 </t>
         </is>
       </c>
